--- a/data/cmsanhtester.xlsx
+++ b/data/cmsanhtester.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\robot-ai-devops-framework-main\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cef17ba1bd098e98/Documents/GitHub/Robot-AI-DevOps-Testing-Framework-/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0349524E-056C-47BA-989F-A317C25A1A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="13_ncr:1_{0349524E-056C-47BA-989F-A317C25A1A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA714629-9FE2-4A2A-A2EF-53A0F3256EF2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="139">
   <si>
     <t>action</t>
   </si>
@@ -248,15 +248,6 @@
     <t>PR_3</t>
   </si>
   <si>
-    <t>UP_4</t>
-  </si>
-  <si>
-    <t>UP_5</t>
-  </si>
-  <si>
-    <t>UP_6</t>
-  </si>
-  <si>
     <t>nguyenthanh1731@gmail.com</t>
   </si>
   <si>
@@ -275,9 +266,6 @@
     <t>//input[@placeholder='Your Phone']</t>
   </si>
   <si>
-    <t>0978990221</t>
-  </si>
-  <si>
     <t>//input[@placeholder='New Password']</t>
   </si>
   <si>
@@ -299,9 +287,6 @@
     <t>MO_1</t>
   </si>
   <si>
-    <t>https://cms.anhtester.com/product/kem-nen-5</t>
-  </si>
-  <si>
     <t>//button[@class='btn btn-soft-primary mr-2 add-to-cart fw-600']</t>
   </si>
   <si>
@@ -311,9 +296,6 @@
     <t>//a[normalize-space()='Continue to Shipping']</t>
   </si>
   <si>
-    <t>//span[@class='aiz-rounded-check flex-shrink-0 mt-1']</t>
-  </si>
-  <si>
     <t>//button[normalize-space()='Continue to Delivery Info']</t>
   </si>
   <si>
@@ -368,21 +350,9 @@
     <t>…</t>
   </si>
   <si>
-    <t>Search result for"..."</t>
-  </si>
-  <si>
-    <t>https://cms.anhtester.com/search?keyword=...</t>
-  </si>
-  <si>
     <t>…@#$</t>
   </si>
   <si>
-    <t>https://cms.anhtester.com/search?keyword=%40%23%24</t>
-  </si>
-  <si>
-    <t>Search result for"@#$"</t>
-  </si>
-  <si>
     <t>S_4</t>
   </si>
   <si>
@@ -392,20 +362,92 @@
     <t xml:space="preserve">   Áo thun</t>
   </si>
   <si>
-    <t>https://cms.anhtester.com/search?keyword=+++%C3%81o+thun</t>
-  </si>
-  <si>
     <t>Áo thun loại 1</t>
   </si>
   <si>
     <t>S_5</t>
+  </si>
+  <si>
+    <t>PR_4</t>
+  </si>
+  <si>
+    <t>PR_5</t>
+  </si>
+  <si>
+    <t>PR_6</t>
+  </si>
+  <si>
+    <t>{faker_phone}</t>
+  </si>
+  <si>
+    <t>{faker_name}</t>
+  </si>
+  <si>
+    <t>MO_4</t>
+  </si>
+  <si>
+    <t>https://cms.anhtester.com/product/cosy-thuy-dung-20250505-042400-jop</t>
+  </si>
+  <si>
+    <t>Vui lòng chọn 1 trong các tùy chọn sau.</t>
+  </si>
+  <si>
+    <t>https://cms.anhtester.com/checkout/delivery_info</t>
+  </si>
+  <si>
+    <t>MO_5</t>
+  </si>
+  <si>
+    <t>You need to agree with our policies</t>
+  </si>
+  <si>
+    <t>https://cms.anhtester.com/checkout/order-confirmed</t>
+  </si>
+  <si>
+    <t>Page Not Found!</t>
+  </si>
+  <si>
+    <t>MO_6</t>
+  </si>
+  <si>
+    <t>MO_7</t>
+  </si>
+  <si>
+    <t>Please add shipping address</t>
+  </si>
+  <si>
+    <t>MO_8</t>
+  </si>
+  <si>
+    <t>https://cms.anhtester.com/checkout/payment_select</t>
+  </si>
+  <si>
+    <t>Oops! An Error Occurred</t>
+  </si>
+  <si>
+    <t>MO_9</t>
+  </si>
+  <si>
+    <t>The phone field is required.</t>
+  </si>
+  <si>
+    <t>https://cms.anhtester.com/search?keyword=%E2%80%A6</t>
+  </si>
+  <si>
+    <t>https://cms.anhtester.com/search?keyword=%E2%80%A6%40%23%24</t>
+  </si>
+  <si>
+    <t>https://cms.anhtester.com/search?keyword=%C3%81o+thun</t>
+  </si>
+  <si>
+    <t>//span[@class='d-flex p-3 aiz-megabox-elem']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -483,6 +525,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1B1B28"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -492,7 +565,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -573,67 +646,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF1F2329"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF1F2329"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF1F2329"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF1F2329"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF1F2329"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF1F2329"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF1F2329"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFDEE0E3"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF1F2329"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -641,7 +653,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -702,37 +714,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1169,15 +1169,17 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E19" sqref="E19"/>
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="15" customWidth="1"/>
-    <col min="3" max="7" width="40" style="15" customWidth="1"/>
+    <col min="2" max="2" width="87" style="15" customWidth="1"/>
+    <col min="3" max="4" width="40" style="15" customWidth="1"/>
+    <col min="5" max="5" width="53.85546875" style="15" customWidth="1"/>
+    <col min="6" max="7" width="40" style="15" customWidth="1"/>
     <col min="8" max="8" width="46" style="15" customWidth="1"/>
     <col min="9" max="10" width="40" style="15" customWidth="1"/>
     <col min="11" max="16384" width="12.5703125" style="15"/>
@@ -1395,7 +1397,7 @@
         <v>33</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
@@ -1444,6 +1446,7 @@
     <hyperlink ref="E9" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -1453,13 +1456,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D20" sqref="D20"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="86.140625" customWidth="1"/>
     <col min="3" max="3" width="46.85546875" style="10" customWidth="1"/>
     <col min="4" max="11" width="46.85546875" customWidth="1"/>
   </cols>
@@ -1831,14 +1834,14 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B3" sqref="B3"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="86" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="34.85546875" customWidth="1"/>
     <col min="5" max="5" width="41.140625" customWidth="1"/>
@@ -1862,13 +1865,13 @@
         <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25">
@@ -1902,14 +1905,14 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1917,11 +1920,11 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:8" ht="14.25">
+      <c r="A5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -1955,22 +1958,22 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1978,30 +1981,30 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>83</v>
+        <v>79</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2014,7 +2017,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2051,10 +2054,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="b">
@@ -2067,10 +2070,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2086,7 +2089,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C14" s="1" t="b">
         <v>1</v>
@@ -2113,13 +2116,13 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>87</v>
+      <c r="E15" s="25" t="s">
+        <v>134</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>69</v>
@@ -2128,7 +2131,7 @@
         <v>68</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2175,8 +2178,8 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -2211,6 +2214,7 @@
     <hyperlink ref="F7" r:id="rId6" tooltip="https://cms.anhtester.com/profile" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
     <hyperlink ref="G7" r:id="rId7" tooltip="https://cms.anhtester.com/profile" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
     <hyperlink ref="H7" r:id="rId8" tooltip="https://cms.anhtester.com/profile" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="C9" r:id="rId9" tooltip="mailto:nguyenthanh221515042025@gmail.com" display="{faker_email}" xr:uid="{ED3F7BB7-A854-48E2-A2A7-5CC00A6EB1DD}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2218,340 +2222,179 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="86.85546875" customWidth="1"/>
-    <col min="3" max="3" width="65.140625" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="59.85546875" customWidth="1"/>
     <col min="4" max="4" width="38.7109375" customWidth="1"/>
     <col min="5" max="5" width="51.28515625" customWidth="1"/>
     <col min="6" max="6" width="54.42578125" customWidth="1"/>
-    <col min="7" max="7" width="60.7109375" customWidth="1"/>
+    <col min="7" max="7" width="63.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.25">
+      <c r="A2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="15" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.25">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.25">
-      <c r="A5" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="33">
-        <v>123456</v>
-      </c>
-      <c r="D5" s="33">
-        <v>123456</v>
-      </c>
-      <c r="E5" s="33">
-        <v>123456</v>
-      </c>
-      <c r="F5" s="33">
-        <v>123456</v>
-      </c>
-      <c r="G5" s="33">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.25">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="1">
-        <v>123456</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{5D74220D-14DD-42D1-85EB-CE56B713BDC9}"/>
-    <hyperlink ref="C4" r:id="rId2" tooltip="mailto:customer2025@gmail.com" display="mailto:customer2025@gmail.com" xr:uid="{D6F0BE76-4902-4E65-B009-4A77FC875810}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{21042DDF-1D4C-4802-BB09-57730CBDD730}"/>
-    <hyperlink ref="D4" r:id="rId4" tooltip="mailto:customer2025@gmail.com" display="mailto:customer2025@gmail.com" xr:uid="{59C6E48A-7788-4355-B123-D312D11FDFCB}"/>
-    <hyperlink ref="D10" r:id="rId5" xr:uid="{BB4EBD65-EB57-4899-9220-D69CB7B8DDB7}"/>
-    <hyperlink ref="E2" r:id="rId6" xr:uid="{933A2FAF-0F09-4C3D-B296-190DA0B541EA}"/>
-    <hyperlink ref="E4" r:id="rId7" tooltip="mailto:customer2025@gmail.com" display="mailto:customer2025@gmail.com" xr:uid="{C472DB30-825F-476F-B6B0-34D03E9FBA28}"/>
-    <hyperlink ref="F2" r:id="rId8" xr:uid="{C0B1219B-E59D-43A5-A4FD-1BFE0C360D00}"/>
-    <hyperlink ref="F4" r:id="rId9" tooltip="mailto:customer2025@gmail.com" display="mailto:customer2025@gmail.com" xr:uid="{85E5EA2F-24D0-4A6B-B906-39C7818B0A2C}"/>
-    <hyperlink ref="F10" r:id="rId10" xr:uid="{A37EBB56-ADF5-4379-A7EC-0029B072009C}"/>
-    <hyperlink ref="G2" r:id="rId11" xr:uid="{796E7993-068C-4FCB-81BB-B3502D28A141}"/>
-    <hyperlink ref="G4" r:id="rId12" tooltip="mailto:customer2025@gmail.com" display="mailto:customer2025@gmail.com" xr:uid="{8C95CEE0-F131-47A0-AC76-7449B49B2196}"/>
-    <hyperlink ref="G10" r:id="rId13" xr:uid="{5E1DBA08-1D36-4AB0-8682-1D6623DA85ED}"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{BB4EBD65-EB57-4899-9220-D69CB7B8DDB7}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{A37EBB56-ADF5-4379-A7EC-0029B072009C}"/>
+    <hyperlink ref="G6" r:id="rId3" xr:uid="{5E1DBA08-1D36-4AB0-8682-1D6623DA85ED}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{4B9C52BE-D3BD-4D13-AED3-A7F9E6AB2F85}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2559,22 +2402,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="13" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="57.85546875" customWidth="1"/>
+    <col min="2" max="2" width="86.42578125" customWidth="1"/>
     <col min="3" max="3" width="48.42578125" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="5" max="5" width="42.140625" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" customWidth="1"/>
+    <col min="7" max="7" width="63" customWidth="1"/>
+    <col min="8" max="8" width="67.140625" customWidth="1"/>
+    <col min="9" max="9" width="76" customWidth="1"/>
+    <col min="10" max="10" width="74.7109375" customWidth="1"/>
+    <col min="11" max="11" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2582,31 +2434,55 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25">
+        <v>96</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2616,14 +2492,16 @@
       <c r="C3" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.25">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2639,8 +2517,14 @@
       <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="14.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -2656,8 +2540,14 @@
       <c r="E5" s="21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2673,93 +2563,201 @@
       <c r="E6" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="28.5">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="7" t="s">
-        <v>91</v>
-      </c>
+      <c r="C7" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>120</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C8" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.25">
+      <c r="F8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="14.25">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>88</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C10" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="D10" s="1"/>
+      <c r="E10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="C11" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C12" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="D12" s="1"/>
+      <c r="E12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C13" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2769,65 +2767,166 @@
       <c r="C14" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C15" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="14.25">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.25">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="16.5">
+      <c r="H21" s="29"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="F22" s="24"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="C4" r:id="rId2" tooltip="mailto:customer2025@gmail.com" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="C2" r:id="rId3" tooltip="https://cms.anhtester.com/users/login" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="D4" r:id="rId4" tooltip="mailto:customer2025@gmail.com" xr:uid="{4A1B9460-97A3-4576-BD89-0281DA49EEAE}"/>
-    <hyperlink ref="D2" r:id="rId5" tooltip="https://cms.anhtester.com/users/login" xr:uid="{6640D3E9-005E-4D12-BC02-4F6730194C3A}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{FCBE568B-C4FC-4489-A3B5-D6EBBE27AF55}"/>
-    <hyperlink ref="E7" r:id="rId8" xr:uid="{8F31B026-9C2C-49FD-B970-F75719D2AABA}"/>
-    <hyperlink ref="E4" r:id="rId9" tooltip="mailto:customer2025@gmail.com" xr:uid="{D9599517-8A0D-42B2-ACF5-0E815874C3C7}"/>
-    <hyperlink ref="E2" r:id="rId10" tooltip="https://cms.anhtester.com/users/login" xr:uid="{2BFD6484-C9E6-4ED3-A3B4-C39F8281183D}"/>
-    <hyperlink ref="E9" r:id="rId11" xr:uid="{CD24DBA4-A35B-4CF9-832F-4F40123A9F81}"/>
+    <hyperlink ref="C4" r:id="rId1" tooltip="mailto:customer2025@gmail.com" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId2" tooltip="https://cms.anhtester.com/users/login" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="D4" r:id="rId3" tooltip="mailto:customer2025@gmail.com" xr:uid="{4A1B9460-97A3-4576-BD89-0281DA49EEAE}"/>
+    <hyperlink ref="D2" r:id="rId4" tooltip="https://cms.anhtester.com/users/login" xr:uid="{6640D3E9-005E-4D12-BC02-4F6730194C3A}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="E4" r:id="rId6" tooltip="mailto:customer2025@gmail.com" xr:uid="{D9599517-8A0D-42B2-ACF5-0E815874C3C7}"/>
+    <hyperlink ref="E2" r:id="rId7" tooltip="https://cms.anhtester.com/users/login" xr:uid="{2BFD6484-C9E6-4ED3-A3B4-C39F8281183D}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{CD24DBA4-A35B-4CF9-832F-4F40123A9F81}"/>
+    <hyperlink ref="F9" r:id="rId9" xr:uid="{15987D10-82FC-4BD9-8CA9-7553CF494B39}"/>
+    <hyperlink ref="E7" r:id="rId10" xr:uid="{3EDDA148-4B51-452F-B133-6CABA13B99F2}"/>
+    <hyperlink ref="F17" r:id="rId11" xr:uid="{51702374-41C1-4B8C-80FB-A25D1EDE9F0B}"/>
+    <hyperlink ref="G9" r:id="rId12" xr:uid="{2D72BDE3-C120-4F5E-8269-8D15D52FBBDD}"/>
+    <hyperlink ref="H7" r:id="rId13" xr:uid="{B6C87182-39B3-4210-9936-6167547EDD77}"/>
+    <hyperlink ref="I7" r:id="rId14" xr:uid="{0CE03AE6-EDBE-47AD-93EA-007C802815F1}"/>
+    <hyperlink ref="J7" r:id="rId15" xr:uid="{57BFF242-E703-4DCF-B76C-5FEC3481DDB3}"/>
+    <hyperlink ref="K9" r:id="rId16" xr:uid="{2990C461-B293-4D2E-88EA-833B1EF85FB5}"/>
+    <hyperlink ref="K17" r:id="rId17" xr:uid="{49991B6C-3E5B-4292-ABE9-7CDA3941B23C}"/>
+    <hyperlink ref="C18" r:id="rId18" xr:uid="{F2FFAECD-A58A-4DE5-96F6-F508C162989C}"/>
+    <hyperlink ref="D18" r:id="rId19" xr:uid="{D62EC1A9-A9FA-4CD4-993C-B6C4180EB056}"/>
+    <hyperlink ref="D9" r:id="rId20" xr:uid="{92F5F826-EA7A-49BB-AA31-117DB3D392B7}"/>
+    <hyperlink ref="J18" r:id="rId21" xr:uid="{C6214D2A-6715-49DE-B3B1-9291560B17B6}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>